--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\287638\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9160799-7110-4DBF-87BB-B6BD0A825626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="128">
   <si>
     <t>User_ID</t>
   </si>
@@ -383,13 +389,28 @@
   </si>
   <si>
     <t>Poor</t>
+  </si>
+  <si>
+    <t>Positive_Feedback</t>
+  </si>
+  <si>
+    <t>Feedbacks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -437,13 +458,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -452,13 +485,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -496,7 +537,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -530,6 +571,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -564,9 +606,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -739,14 +782,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,8 +822,14 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -809,8 +860,14 @@
       <c r="J2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -841,8 +898,14 @@
       <c r="J3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -873,8 +936,14 @@
       <c r="J4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -897,7 +966,7 @@
         <v>114</v>
       </c>
       <c r="H5">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -906,7 +975,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -929,7 +998,7 @@
         <v>116</v>
       </c>
       <c r="H6">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -938,7 +1007,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -970,7 +1039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1002,7 +1071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1034,7 +1103,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1066,7 +1135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1167,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1199,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1162,7 +1231,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1263,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +1295,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1258,7 +1327,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1359,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1354,7 +1423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1386,7 +1455,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1418,7 +1487,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1450,7 +1519,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1482,7 +1551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1514,7 +1583,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1546,7 +1615,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1578,7 +1647,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1610,7 +1679,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1642,7 +1711,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1674,7 +1743,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1766,7 @@
         <v>115</v>
       </c>
       <c r="H30">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1706,7 +1775,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1738,7 +1807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1770,7 +1839,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1793,7 +1862,7 @@
         <v>114</v>
       </c>
       <c r="H33">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -1802,7 +1871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1825,7 +1894,7 @@
         <v>113</v>
       </c>
       <c r="H34">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -1834,7 +1903,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1866,7 +1935,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1889,7 +1958,7 @@
         <v>115</v>
       </c>
       <c r="H36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -1898,7 +1967,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1930,7 +1999,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1962,7 +2031,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1985,7 +2054,7 @@
         <v>117</v>
       </c>
       <c r="H39">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -1994,7 +2063,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -2017,7 +2086,7 @@
         <v>114</v>
       </c>
       <c r="H40">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2026,7 +2095,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2058,7 +2127,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -2090,7 +2159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -2122,7 +2191,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -2154,7 +2223,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -2186,7 +2255,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -2209,7 +2278,7 @@
         <v>117</v>
       </c>
       <c r="H46">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I46">
         <v>5</v>
@@ -2218,7 +2287,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2250,7 +2319,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -2282,7 +2351,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2305,7 +2374,7 @@
         <v>115</v>
       </c>
       <c r="H49">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I49">
         <v>5</v>
@@ -2314,7 +2383,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -2346,7 +2415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2378,7 +2447,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -2410,7 +2479,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -2442,7 +2511,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -2474,7 +2543,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2506,7 +2575,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -2538,7 +2607,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -2570,7 +2639,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -2602,7 +2671,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -2634,7 +2703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -2657,7 +2726,7 @@
         <v>113</v>
       </c>
       <c r="H60">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -2666,7 +2735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -2698,7 +2767,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -2721,7 +2790,7 @@
         <v>114</v>
       </c>
       <c r="H62">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -2730,7 +2799,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -2753,7 +2822,7 @@
         <v>116</v>
       </c>
       <c r="H63">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2762,7 +2831,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -2785,7 +2854,7 @@
         <v>117</v>
       </c>
       <c r="H64">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I64">
         <v>4</v>
@@ -2794,7 +2863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -2826,7 +2895,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -2858,7 +2927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -2890,7 +2959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -2922,7 +2991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -2954,7 +3023,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2986,7 +3055,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -3018,7 +3087,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -3050,7 +3119,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -3082,7 +3151,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -3114,7 +3183,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>83</v>
       </c>
@@ -3146,7 +3215,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -3169,7 +3238,7 @@
         <v>114</v>
       </c>
       <c r="H76">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I76">
         <v>5</v>
@@ -3178,7 +3247,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>85</v>
       </c>
@@ -3210,7 +3279,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -3242,7 +3311,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -3274,7 +3343,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -3297,7 +3366,7 @@
         <v>116</v>
       </c>
       <c r="H80">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -3306,7 +3375,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -3338,7 +3407,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -3370,7 +3439,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -3402,7 +3471,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -3434,7 +3503,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -3466,7 +3535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -3498,7 +3567,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -3530,7 +3599,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -3562,7 +3631,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -3594,7 +3663,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -3626,7 +3695,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -3658,7 +3727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -3690,7 +3759,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>101</v>
       </c>
@@ -3722,7 +3791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>102</v>
       </c>
@@ -3754,7 +3823,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>103</v>
       </c>
@@ -3786,7 +3855,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -3809,7 +3878,7 @@
         <v>115</v>
       </c>
       <c r="H96">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3818,7 +3887,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>105</v>
       </c>
@@ -3841,7 +3910,7 @@
         <v>114</v>
       </c>
       <c r="H97">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -3850,7 +3919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>106</v>
       </c>
@@ -3882,7 +3951,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -3905,7 +3974,7 @@
         <v>113</v>
       </c>
       <c r="H99">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I99">
         <v>4</v>
@@ -3914,7 +3983,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3946,7 +4015,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>109</v>
       </c>
